--- a/tools_n_data/kiss_the_rain_new.xlsx
+++ b/tools_n_data/kiss_the_rain_new.xlsx
@@ -1296,7 +1296,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="6" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
